--- a/file/柱SCAN.xlsx
+++ b/file/柱SCAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F05B2C-C74E-4B1C-BB98-EE6AAE4E2E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B2A3C-0F7E-4915-BE48-7E73B155FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
   </bookViews>
   <sheets>
     <sheet name="柱" sheetId="1" r:id="rId1"/>
@@ -1116,57 +1116,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0202</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央上層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.4.2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0203</t>
   </si>
   <si>
@@ -4678,6 +4627,57 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 30cm</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認中央上層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5822,8 +5822,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="G2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5982,13 +5982,13 @@
         <v>52</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>57</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -6002,7 +6002,7 @@
         <v>48</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>50</v>
@@ -6014,13 +6014,13 @@
         <v>52</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -6037,7 +6037,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>51</v>
@@ -6046,13 +6046,13 @@
         <v>52</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -6069,7 +6069,7 @@
         <v>56</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="38" t="s">
         <v>51</v>
@@ -6078,13 +6078,13 @@
         <v>52</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -6098,10 +6098,10 @@
         <v>48</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="38" t="s">
         <v>51</v>
@@ -6110,13 +6110,13 @@
         <v>52</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -6128,23 +6128,23 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="29" t="s">
+      <c r="L10" s="37" t="s">
         <v>71</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -6155,22 +6155,22 @@
         <v>16</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="38"/>
       <c r="K11" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -6189,16 +6189,16 @@
         <v>35</v>
       </c>
       <c r="K12" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="37" t="s">
         <v>78</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -6210,23 +6210,23 @@
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -6238,23 +6238,23 @@
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="38" t="s">
         <v>51</v>
       </c>
       <c r="K14" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="37" t="s">
         <v>85</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
@@ -6274,19 +6274,19 @@
         <v>50</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -6306,19 +6306,19 @@
         <v>50</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -6332,25 +6332,25 @@
         <v>48</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I17" s="27" t="s">
         <v>50</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="23">
         <v>1</v>
@@ -6367,22 +6367,22 @@
         <v>49</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="23">
         <v>1</v>
@@ -6399,22 +6399,22 @@
         <v>56</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="23">
         <v>1</v>
@@ -6428,25 +6428,25 @@
         <v>48</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="23">
         <v>1</v>
@@ -6462,19 +6462,19 @@
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="37" t="s">
         <v>101</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="23">
         <v>1</v>
@@ -6488,23 +6488,23 @@
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K22" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" s="37" t="s">
         <v>105</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="23">
         <v>1</v>
@@ -6518,23 +6518,23 @@
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="L23" s="37" t="s">
         <v>108</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24">
@@ -6554,19 +6554,19 @@
         <v>50</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" s="37" t="s">
         <v>111</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C25" s="23">
         <v>1</v>
@@ -6577,20 +6577,20 @@
         <v>16</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J25" s="38" t="s">
         <v>51</v>
       </c>
       <c r="K25" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="41" t="s">
         <v>114</v>
-      </c>
-      <c r="L25" s="41" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -6675,10 +6675,10 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>12</v>
@@ -6719,10 +6719,10 @@
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>119</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>120</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -6748,15 +6748,15 @@
         <v>52</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -6782,15 +6782,15 @@
         <v>52</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -6804,7 +6804,7 @@
         <v>48</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I6" s="27" t="s">
         <v>50</v>
@@ -6816,15 +6816,15 @@
         <v>52</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -6841,7 +6841,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>51</v>
@@ -6850,13 +6850,13 @@
         <v>52</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -6873,7 +6873,7 @@
         <v>56</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="38" t="s">
         <v>51</v>
@@ -6882,15 +6882,15 @@
         <v>52</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -6904,10 +6904,10 @@
         <v>48</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="38" t="s">
         <v>51</v>
@@ -6916,13 +6916,13 @@
         <v>52</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -6934,23 +6934,23 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="46" t="s">
-        <v>71</v>
-      </c>
       <c r="L10" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -6962,23 +6962,23 @@
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -6990,23 +6990,23 @@
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="38" t="s">
         <v>51</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -7024,19 +7024,19 @@
         <v>50</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>139</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -7051,22 +7051,22 @@
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
@@ -7078,17 +7078,17 @@
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="38" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" s="37" t="s">
         <v>145</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -7102,7 +7102,7 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -7159,10 +7159,10 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>12</v>
@@ -7204,7 +7204,7 @@
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -7215,7 +7215,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="34" t="s">
@@ -7225,16 +7225,16 @@
         <v>51</v>
       </c>
       <c r="K4" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>151</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -7245,26 +7245,26 @@
         <v>16</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J5" s="38" t="s">
         <v>51</v>
       </c>
       <c r="K5" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="41" t="s">
         <v>114</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24">
@@ -7275,26 +7275,26 @@
         <v>16</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="L6" s="41" t="s">
         <v>155</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -7312,19 +7312,19 @@
         <v>50</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K7" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="L7" s="41" t="s">
         <v>158</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -7339,22 +7339,22 @@
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K8" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="L8" s="41" t="s">
         <v>161</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -7366,23 +7366,23 @@
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>165</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -7394,23 +7394,23 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K10" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" s="41" t="s">
         <v>168</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -7428,19 +7428,19 @@
         <v>50</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>171</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -7455,22 +7455,22 @@
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K12" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>174</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24">
@@ -7487,22 +7487,22 @@
         <v>56</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K13" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="41" t="s">
         <v>177</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24">
@@ -7522,19 +7522,19 @@
         <v>50</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K14" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="41" t="s">
         <v>180</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24">
@@ -7548,25 +7548,25 @@
         <v>48</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I15" s="27" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -7580,23 +7580,23 @@
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K16" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="L16" s="41" t="s">
         <v>185</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -7610,17 +7610,17 @@
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/file/柱SCAN.xlsx
+++ b/file/柱SCAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849B2A3C-0F7E-4915-BE48-7E73B155FE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ACCBB0-904D-4C0A-B8F6-1B16408F9A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
   </bookViews>
   <sheets>
     <sheet name="柱" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="207">
   <si>
     <t>Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4678,6 +4678,450 @@
         <charset val="136"/>
       </rPr>
       <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0223</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大粱主筋間距大於1.5倍db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0223</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋間距小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍主筋直徑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0313</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋間距大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>db</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主筋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>變化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主筋號數無連續變化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0408</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋號數變化過於劇烈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(#10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>#8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>#7)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0313</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋間距小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>db</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主筋支數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0408</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0409</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主筋間距大於1.5db</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0409</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>向主筋間距小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍主筋直徑</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0410</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0410</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>向主筋間距小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍主筋直徑</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4686,7 +5130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4753,6 +5197,33 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="11">
@@ -4958,7 +5429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5122,6 +5593,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5441,8 +5930,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5452,7 +5941,7 @@
     <col min="3" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="69.125" bestFit="1" customWidth="1"/>
@@ -5619,8 +6108,8 @@
         <v>26</v>
       </c>
       <c r="I6" s="27"/>
-      <c r="J6" s="28" t="s">
-        <v>27</v>
+      <c r="J6" s="60" t="s">
+        <v>200</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>28</v>
@@ -5743,45 +6232,91 @@
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="31" t="s">
+        <v>201</v>
+      </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="H11" s="58" t="s">
+        <v>194</v>
+      </c>
       <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="J11" s="59" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
+      <c r="B12" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="23">
+        <v>1</v>
+      </c>
       <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="H12" s="58" t="s">
+        <v>199</v>
+      </c>
       <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="J12" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
       <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="H13" s="58" t="s">
+        <v>199</v>
+      </c>
       <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
+      <c r="J13" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
@@ -5822,8 +6357,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6589,23 +7124,37 @@
       <c r="K25" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="L25" s="41" t="s">
+      <c r="L25" s="56" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
-      <c r="B26" s="31"/>
+      <c r="B26" s="42" t="s">
+        <v>189</v>
+      </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
+      <c r="E26" s="25">
+        <v>1</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="H26" s="27" t="s">
+        <v>80</v>
+      </c>
       <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
+      <c r="J26" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" s="39" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6616,10 +7165,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DBD7A6-15C7-467C-9942-22C4E494A8F9}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:I2"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7089,6 +7638,34 @@
       </c>
       <c r="L15" s="37" t="s">
         <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="45"/>
+      <c r="J16" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/file/柱SCAN.xlsx
+++ b/file/柱SCAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ACCBB0-904D-4C0A-B8F6-1B16408F9A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA6536F-F9F5-45F1-BB65-BD84F4645151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
   </bookViews>
   <sheets>
     <sheet name="柱" sheetId="1" r:id="rId1"/>
@@ -3130,9 +3130,6 @@
     </r>
   </si>
   <si>
-    <t>0305</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -5123,6 +5120,10 @@
       </rPr>
       <t>倍主筋直徑</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0205</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5930,7 +5931,7 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -6109,7 +6110,7 @@
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>28</v>
@@ -6233,7 +6234,7 @@
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
@@ -6245,23 +6246,23 @@
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="L11" s="36" t="s">
         <v>196</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -6275,23 +6276,23 @@
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="28" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>203</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -6305,17 +6306,17 @@
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="28" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -6357,7 +6358,7 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
@@ -6517,7 +6518,7 @@
         <v>52</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -7131,7 +7132,7 @@
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
@@ -7150,10 +7151,10 @@
         <v>51</v>
       </c>
       <c r="K26" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="39" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -7167,8 +7168,8 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7224,7 +7225,7 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>117</v>
@@ -7404,8 +7405,8 @@
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="31" t="s">
-        <v>127</v>
+      <c r="B8" s="42" t="s">
+        <v>206</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -7431,7 +7432,7 @@
         <v>52</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -7439,7 +7440,7 @@
         <v>118</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -7465,13 +7466,13 @@
         <v>52</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -7493,13 +7494,13 @@
         <v>70</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -7521,13 +7522,13 @@
         <v>81</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -7549,13 +7550,13 @@
         <v>84</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -7576,16 +7577,16 @@
         <v>69</v>
       </c>
       <c r="K13" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>138</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -7606,16 +7607,16 @@
         <v>69</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
@@ -7627,23 +7628,23 @@
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="38" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -7662,10 +7663,10 @@
         <v>51</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -7736,10 +7737,10 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>12</v>
@@ -7781,7 +7782,7 @@
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -7802,16 +7803,16 @@
         <v>51</v>
       </c>
       <c r="K4" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>150</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -7841,7 +7842,7 @@
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24">
@@ -7862,16 +7863,16 @@
         <v>69</v>
       </c>
       <c r="K6" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="L6" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -7892,16 +7893,16 @@
         <v>100</v>
       </c>
       <c r="K7" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" s="41" t="s">
         <v>157</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -7922,16 +7923,16 @@
         <v>100</v>
       </c>
       <c r="K8" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="41" t="s">
         <v>160</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -7943,23 +7944,23 @@
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="38" t="s">
         <v>69</v>
       </c>
       <c r="K9" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>164</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -7971,23 +7972,23 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="38" t="s">
         <v>100</v>
       </c>
       <c r="K10" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="41" t="s">
         <v>167</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -8008,16 +8009,16 @@
         <v>69</v>
       </c>
       <c r="K11" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>170</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -8038,16 +8039,16 @@
         <v>69</v>
       </c>
       <c r="K12" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>173</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24">
@@ -8070,16 +8071,16 @@
         <v>69</v>
       </c>
       <c r="K13" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="41" t="s">
         <v>176</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24">
@@ -8102,16 +8103,16 @@
         <v>69</v>
       </c>
       <c r="K14" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="41" t="s">
         <v>179</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24">
@@ -8134,16 +8135,16 @@
         <v>69</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -8164,16 +8165,16 @@
         <v>100</v>
       </c>
       <c r="K16" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" s="41" t="s">
         <v>184</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -8197,7 +8198,7 @@
         <v>107</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/file/柱SCAN.xlsx
+++ b/file/柱SCAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA6536F-F9F5-45F1-BB65-BD84F4645151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D25E13A-2381-408C-8342-567CAC3A8868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
   </bookViews>
@@ -3234,9 +3234,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0307</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -5124,6 +5121,10 @@
   </si>
   <si>
     <t>0205</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0207</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6110,7 +6111,7 @@
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>28</v>
@@ -6234,7 +6235,7 @@
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
@@ -6246,23 +6247,23 @@
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="L11" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -6276,23 +6277,23 @@
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="28" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>202</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -6306,17 +6307,17 @@
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="28" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -6518,7 +6519,7 @@
         <v>52</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
@@ -7132,7 +7133,7 @@
     <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
@@ -7151,10 +7152,10 @@
         <v>51</v>
       </c>
       <c r="K26" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="39" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7169,7 +7170,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -7225,7 +7226,7 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>117</v>
@@ -7406,7 +7407,7 @@
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -7471,8 +7472,8 @@
     </row>
     <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
-      <c r="B10" s="31" t="s">
-        <v>130</v>
+      <c r="B10" s="42" t="s">
+        <v>206</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -7494,13 +7495,13 @@
         <v>70</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -7522,13 +7523,13 @@
         <v>81</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -7550,13 +7551,13 @@
         <v>84</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -7577,16 +7578,16 @@
         <v>69</v>
       </c>
       <c r="K13" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>137</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -7607,16 +7608,16 @@
         <v>69</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
@@ -7628,23 +7629,23 @@
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="38" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="37" t="s">
         <v>143</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -7663,10 +7664,10 @@
         <v>51</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7737,10 +7738,10 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>146</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>147</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>12</v>
@@ -7782,7 +7783,7 @@
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -7803,16 +7804,16 @@
         <v>51</v>
       </c>
       <c r="K4" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>149</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -7842,7 +7843,7 @@
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24">
@@ -7863,16 +7864,16 @@
         <v>69</v>
       </c>
       <c r="K6" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" s="41" t="s">
         <v>153</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -7893,16 +7894,16 @@
         <v>100</v>
       </c>
       <c r="K7" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="L7" s="41" t="s">
         <v>156</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -7923,16 +7924,16 @@
         <v>100</v>
       </c>
       <c r="K8" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="41" t="s">
         <v>159</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -7944,23 +7945,23 @@
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="38" t="s">
         <v>69</v>
       </c>
       <c r="K9" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>163</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -7972,23 +7973,23 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="38" t="s">
         <v>100</v>
       </c>
       <c r="K10" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="41" t="s">
         <v>166</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -8009,16 +8010,16 @@
         <v>69</v>
       </c>
       <c r="K11" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>169</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -8039,16 +8040,16 @@
         <v>69</v>
       </c>
       <c r="K12" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>172</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24">
@@ -8071,16 +8072,16 @@
         <v>69</v>
       </c>
       <c r="K13" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="41" t="s">
         <v>175</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24">
@@ -8103,16 +8104,16 @@
         <v>69</v>
       </c>
       <c r="K14" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" s="41" t="s">
         <v>178</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24">
@@ -8135,16 +8136,16 @@
         <v>69</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -8165,16 +8166,16 @@
         <v>100</v>
       </c>
       <c r="K16" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="41" t="s">
         <v>183</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -8198,7 +8199,7 @@
         <v>107</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/file/柱SCAN.xlsx
+++ b/file/柱SCAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D25E13A-2381-408C-8342-567CAC3A8868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663586D9-BD5C-4D10-BB3A-0A12380DE2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
   </bookViews>
   <sheets>
     <sheet name="柱" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="216">
   <si>
     <t>Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5125,6 +5125,133 @@
   </si>
   <si>
     <t>0207</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>箍筋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央箍筋應考慮混凝土貢獻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0224</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>中央箍筋超過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="3"/>
+      </rPr>
+      <t>倍需求</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接頭剪力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0411</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接頭剪力符合規範</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0411</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>接頭未符合規範接頭剪力需求</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5132,7 +5259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5226,6 +5353,29 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -5431,7 +5581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5615,6 +5765,15 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5633,9 +5792,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -5673,7 +5832,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5779,7 +5938,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5921,7 +6080,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5932,11 +6091,11 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
@@ -5950,7 +6109,7 @@
     <col min="12" max="12" width="57.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5988,7 +6147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
@@ -6018,7 +6177,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75">
       <c r="A3" s="21"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23"/>
@@ -6032,7 +6191,7 @@
       <c r="K3" s="29"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
         <v>15</v>
@@ -6062,7 +6221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
         <v>21</v>
@@ -6092,7 +6251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
         <v>25</v>
@@ -6120,7 +6279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
         <v>30</v>
@@ -6148,7 +6307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
         <v>33</v>
@@ -6176,7 +6335,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
         <v>38</v>
@@ -6204,7 +6363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
         <v>42</v>
@@ -6232,7 +6391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
         <v>199</v>
@@ -6260,7 +6419,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
         <v>200</v>
@@ -6290,7 +6449,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
         <v>203</v>
@@ -6320,21 +6479,37 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
+      <c r="B14" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
       <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="H14" s="58" t="s">
+        <v>212</v>
+      </c>
       <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="J14" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="22"/>
       <c r="C15" s="23"/>
@@ -6357,13 +6532,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8018E948-6A60-4E64-8396-6BA3DA348946}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
@@ -6376,7 +6551,7 @@
     <col min="12" max="12" width="98.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6414,7 +6589,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -6444,7 +6619,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75">
       <c r="A3" s="21"/>
       <c r="B3" s="31"/>
       <c r="C3" s="23"/>
@@ -6458,7 +6633,7 @@
       <c r="K3" s="29"/>
       <c r="L3" s="37"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
         <v>47</v>
@@ -6490,7 +6665,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
         <v>54</v>
@@ -6522,7 +6697,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
         <v>57</v>
@@ -6554,7 +6729,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
         <v>60</v>
@@ -6586,7 +6761,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
         <v>63</v>
@@ -6618,7 +6793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
         <v>65</v>
@@ -6650,7 +6825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
         <v>67</v>
@@ -6678,7 +6853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
         <v>72</v>
@@ -6704,7 +6879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
         <v>76</v>
@@ -6732,7 +6907,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
         <v>79</v>
@@ -6760,7 +6935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
         <v>83</v>
@@ -6788,7 +6963,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
         <v>86</v>
@@ -6820,7 +6995,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
         <v>89</v>
@@ -6852,7 +7027,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18.75">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
         <v>91</v>
@@ -6884,7 +7059,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="18.75">
       <c r="A18" s="21"/>
       <c r="B18" s="31" t="s">
         <v>93</v>
@@ -6916,7 +7091,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18.75">
       <c r="A19" s="21"/>
       <c r="B19" s="31" t="s">
         <v>95</v>
@@ -6948,7 +7123,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18.75">
       <c r="A20" s="21"/>
       <c r="B20" s="31" t="s">
         <v>97</v>
@@ -6980,7 +7155,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18.75">
       <c r="A21" s="21"/>
       <c r="B21" s="31" t="s">
         <v>99</v>
@@ -7008,7 +7183,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="18.75">
       <c r="A22" s="21"/>
       <c r="B22" s="31" t="s">
         <v>102</v>
@@ -7038,7 +7213,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18.75">
       <c r="A23" s="21"/>
       <c r="B23" s="31" t="s">
         <v>106</v>
@@ -7068,7 +7243,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18.75">
       <c r="A24" s="21"/>
       <c r="B24" s="31" t="s">
         <v>109</v>
@@ -7100,7 +7275,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18.75">
       <c r="A25" s="21"/>
       <c r="B25" s="42" t="s">
         <v>116</v>
@@ -7130,7 +7305,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="18.75">
       <c r="A26" s="21"/>
       <c r="B26" s="42" t="s">
         <v>187</v>
@@ -7156,6 +7331,36 @@
       </c>
       <c r="L26" s="39" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="18.75">
+      <c r="A27" s="21"/>
+      <c r="B27" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24">
+        <v>1</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" s="39" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -7169,11 +7374,11 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
@@ -7186,7 +7391,7 @@
     <col min="12" max="12" width="61.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7224,7 +7429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="47" t="s">
         <v>144</v>
       </c>
@@ -7254,7 +7459,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75">
       <c r="A3" s="21"/>
       <c r="B3" s="31"/>
       <c r="C3" s="23"/>
@@ -7268,7 +7473,7 @@
       <c r="K3" s="29"/>
       <c r="L3" s="37"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21" t="s">
         <v>118</v>
       </c>
@@ -7302,7 +7507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21" t="s">
         <v>118</v>
       </c>
@@ -7336,7 +7541,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21" t="s">
         <v>118</v>
       </c>
@@ -7370,7 +7575,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21" t="s">
         <v>118</v>
       </c>
@@ -7404,7 +7609,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="42" t="s">
         <v>205</v>
@@ -7436,7 +7641,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21" t="s">
         <v>118</v>
       </c>
@@ -7470,7 +7675,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="21"/>
       <c r="B10" s="42" t="s">
         <v>206</v>
@@ -7498,7 +7703,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
         <v>131</v>
@@ -7526,7 +7731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
         <v>133</v>
@@ -7554,7 +7759,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
         <v>135</v>
@@ -7584,7 +7789,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
         <v>138</v>
@@ -7614,7 +7819,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
         <v>140</v>
@@ -7642,7 +7847,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
         <v>190</v>
@@ -7685,7 +7890,7 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
@@ -7698,7 +7903,7 @@
     <col min="12" max="12" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7736,7 +7941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="11" t="s">
         <v>145</v>
       </c>
@@ -7766,7 +7971,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75">
       <c r="A3" s="21"/>
       <c r="B3" s="48"/>
       <c r="C3" s="49"/>
@@ -7780,7 +7985,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="53"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
         <v>147</v>
@@ -7810,7 +8015,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
         <v>150</v>
@@ -7840,7 +8045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
         <v>151</v>
@@ -7870,7 +8075,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
         <v>154</v>
@@ -7900,7 +8105,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
         <v>157</v>
@@ -7930,7 +8135,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
         <v>160</v>
@@ -7958,7 +8163,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
         <v>164</v>
@@ -7986,7 +8191,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
         <v>167</v>
@@ -8016,7 +8221,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
         <v>170</v>
@@ -8046,7 +8251,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
         <v>173</v>
@@ -8078,7 +8283,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
         <v>176</v>
@@ -8110,7 +8315,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
         <v>179</v>
@@ -8142,7 +8347,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
         <v>181</v>
@@ -8172,7 +8377,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18.75">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
         <v>184</v>

--- a/file/柱SCAN.xlsx
+++ b/file/柱SCAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663586D9-BD5C-4D10-BB3A-0A12380DE2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BBAA17-B273-4125-BA99-CF4C1C746EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
   </bookViews>
   <sheets>
     <sheet name="柱" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="217">
   <si>
     <t>Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -392,95 +392,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0403</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>向橫向鋼筋，是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.5.4.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0404</t>
   </si>
   <si>
@@ -551,95 +462,6 @@
       </rPr>
       <t>之值。</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0404</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>向橫向鋼筋，是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.5.4.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0405</t>
@@ -1018,6 +840,308 @@
     </r>
   </si>
   <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大梁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中央</t>
+    </r>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>右端</t>
+    </r>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋</t>
+    </r>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁深</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上限</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如梁與柵版之總深度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>超過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 90 cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時，在距最外受拉面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> h/2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>範圍內之梁腹兩側應加置縱向表層鋼筋，梁腹每側表層鋼筋之間距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得大於式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3-6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之規定，其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>為表層鋼筋或預力鋼筋至最近側面之淨保護層厚度。此等鋼筋應可併入強度計算，惟鋼筋之應力須按應變一致性之分析求得。</t>
+    </r>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>深梁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>淨跨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ln </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍梁總深</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1035,7 +1159,848 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0201</t>
+      <t>0208</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認是否為深梁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>剪力計算強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Vs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不可大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.12 * fc' * bw * d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單排支數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>同層平行鋼筋間之淨距不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.0db</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，或粗粒料標稱最大粒徑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.33 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍，亦不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.5 cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認單排支數上限，是否符合淨距不少於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 Db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單排支數需大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0211</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單排支數下限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拉力鋼筋比不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (fc' + 100) / (4 * fy)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，亦不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下限</t>
+    </r>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋間距</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋間距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0219</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認箍筋間距下限，是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以上規定</t>
+    </r>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋間距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認箍筋間距上限，是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如果鋼筋支數大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支，中央上層鋼筋量需小於端部最小鋼筋量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 70%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0221</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認中央上層筋相對鋼筋量，是否符合中央上層鋼筋量需小於端部最小鋼筋量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 70% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>側筋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平剪力鋼筋面積</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Avh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.0015 * bw * s2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> d / 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30 cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>撓曲構材在梁柱交接面及其它可能產生塑鉸位置，其壓力鋼筋量不得小於拉力鋼筋量之半。在沿構材長度上任何斷面，不論正彎矩鋼筋量或負彎矩鋼筋量均不得低於兩端柱面處所具最大負彎矩鋼筋量之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0301</t>
     </r>
     <r>
       <rPr>
@@ -1069,66 +2034,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0202</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1F </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大梁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中央</t>
-    </r>
-  </si>
-  <si>
-    <t>0203</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>右端</t>
-    </r>
+    <t>0302</t>
   </si>
   <si>
     <r>
@@ -1148,7 +2054,60 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0203</t>
+      <t>0302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認中央上層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0303</t>
     </r>
     <r>
       <rPr>
@@ -1179,22 +2138,9 @@
       </rPr>
       <t>規定</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋</t>
-    </r>
+  </si>
+  <si>
+    <t>0304</t>
   </si>
   <si>
     <r>
@@ -1214,7 +2160,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0204</t>
+      <t>0304</t>
     </r>
     <r>
       <rPr>
@@ -1245,10 +2191,9 @@
       </rPr>
       <t>規定</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0205</t>
+  </si>
+  <si>
+    <t>0306</t>
   </si>
   <si>
     <r>
@@ -1268,17 +2213,17 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0205</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央下層筋下限，是否符合規範</t>
+      <t>0306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認右端下層筋下限，是否符合規範</t>
     </r>
     <r>
       <rPr>
@@ -1300,1997 +2245,6 @@
       <t>規定</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0206</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0206</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認右端下層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0207</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁深</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上限</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如梁與柵版之總深度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>超過</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 90 cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>時，在距最外受拉面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> h/2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>範圍內之梁腹兩側應加置縱向表層鋼筋，梁腹每側表層鋼筋之間距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不得大於式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(3-6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之規定，其</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>為表層鋼筋或預力鋼筋至最近側面之淨保護層厚度。此等鋼筋應可併入強度計算，惟鋼筋之應力須按應變一致性之分析求得。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0207</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.7.5</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>深梁</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>淨跨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ln </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>倍梁總深</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0208</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認是否為深梁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0209</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>剪力計算強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Vs </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不可大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.12 * fc' * bw * d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0209</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認剪力鋼筋量上限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 4.6.7.9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0210</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單排支數</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>同層平行鋼筋間之淨距不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.0db</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，或粗粒料標稱最大粒徑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.33 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>倍，亦不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.5 cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0210</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認單排支數上限，是否符合淨距不少於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 Db </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0211</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單排支數需大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>支</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0211</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單排支數下限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>拉力鋼筋比不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (fc' + 100) / (4 * fy)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，亦不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0212</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認左端上層筋上限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.4.2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0213</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0213</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央上層筋上限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.4.2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0214</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0214</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認右端上層筋上限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.4.2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0215</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0215</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認左端下層筋上限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.4.2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0216</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0216</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央下層筋上限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.4.2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0217</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0217</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認右端下層筋上限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.4.2.1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0218</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下限</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0218</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認耐震最小量鋼筋，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 15.4.2.2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <t>0219</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋間距</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋間距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0219</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認箍筋間距下限，是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以上規定</t>
-    </r>
-  </si>
-  <si>
-    <t>0220</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋間距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 30cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0220</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認箍筋間距上限，是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 30cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0221</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如果鋼筋支數大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>支，中央上層鋼筋量需小於端部最小鋼筋量的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 70%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0221</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央上層筋相對鋼筋量，是否符合中央上層鋼筋量需小於端部最小鋼筋量的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 70% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>側筋</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>水平剪力鋼筋面積</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Avh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.0015 * bw * s2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">s2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> d / 5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 30 cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0102</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】短梁側筋面積不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.0015 * bw * s2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>撓曲構材在梁柱交接面及其它可能產生塑鉸位置，其壓力鋼筋量不得小於拉力鋼筋量之半。在沿構材長度上任何斷面，不論正彎矩鋼筋量或負彎矩鋼筋量均不得低於兩端柱面處所具最大負彎矩鋼筋量之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1/4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認左端上層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0302</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央上層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <t>0303</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認右端上層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <t>0304</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0304</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認左端下層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0305</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央下層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <t>0306</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0306</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認右端下層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0307</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.7.5</t>
-    </r>
   </si>
   <si>
     <t>0308</t>
@@ -3871,6 +2825,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最少鋼筋比大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3 %</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3886,29 +2862,29 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0103</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】短梁側筋面積不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.5 * 0.0015 * bw * S2</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0104</t>
+      <t>0104</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】上層筋鋼筋比不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.3%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105</t>
   </si>
   <si>
     <r>
@@ -3928,6 +2904,7 @@
       </rPr>
       <t xml:space="preserve"> 0.3 %</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3945,16 +2922,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0104</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】上層筋鋼筋比不得小於</t>
+      <t>0105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】下層筋鋼筋比不得小於</t>
     </r>
     <r>
       <rPr>
@@ -3967,27 +2944,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0105</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最少鋼筋比大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.3 %</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>0106</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋間距</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼筋間距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25 cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4005,60 +3003,107 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0105</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】下層筋鋼筋比不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.3%</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0106</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋間距</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鋼筋間距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 25 cm </t>
+      <t>0106</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】主筋淨間距不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25 cm</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最少兩支</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0107</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】主筋單排支數不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼筋比在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2% </t>
     </r>
     <r>
       <rPr>
@@ -4069,6 +3114,7 @@
       </rPr>
       <t>以下</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4086,39 +3132,56 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0106</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】主筋淨間距不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 25 cm</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0107</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最少兩支</t>
+      <t>0108</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】上層筋鋼筋比不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼筋比在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下</t>
     </r>
   </si>
   <si>
@@ -4137,65 +3200,73 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0107</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】主筋單排支數不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>支</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0108</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鋼筋比在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下</t>
+      <t>0109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】下層筋鋼筋比不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如果鋼筋支數大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支，中央下層鋼筋量需小於端部最小鋼筋量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 70%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4215,56 +3286,73 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0108</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】上層筋鋼筋比不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2%</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鋼筋比在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下</t>
+      <t>0110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】中央下層鋼筋量不得大於端部最小鋼筋量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 70%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如果鋼筋支數大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支，端部上層鋼筋量需小於中央鋼筋量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 70%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
     </r>
   </si>
   <si>
@@ -4283,56 +3371,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0109</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】下層筋鋼筋比不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2%</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0110</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如果鋼筋支數大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>支，中央下層鋼筋量需小於端部最小鋼筋量的</t>
+      <t>0111</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】左端上層鋼筋量不得大於中央鋼筋量的</t>
     </r>
     <r>
       <rPr>
@@ -4342,16 +3390,10 @@
       </rPr>
       <t xml:space="preserve"> 70%</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0112</t>
   </si>
   <si>
     <r>
@@ -4369,16 +3411,16 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】中央下層鋼筋量不得大於端部最小鋼筋量</t>
+      <t>0112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】右端上層鋼筋量不得大於中央鋼筋量的</t>
     </r>
     <r>
       <rPr>
@@ -4391,52 +3433,36 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0111</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如果鋼筋支數大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>支，端部上層鋼筋量需小於中央鋼筋量的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 70%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
+    <t>0113</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋間距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以上</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4454,29 +3480,29 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0111</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】左端上層鋼筋量不得大於中央鋼筋量的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 70%</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0112</t>
+      <t>0113</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】箍筋間距不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10cm</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0114</t>
   </si>
   <si>
     <r>
@@ -4494,115 +3520,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】右端上層鋼筋量不得大於中央鋼筋量的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 70%</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0113</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋間距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0113</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】箍筋間距不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10cm</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0114</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>0114</t>
     </r>
     <r>
@@ -4621,57 +3538,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 30cm</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0202</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央上層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5251,6 +4117,1124 @@
         <family val="2"/>
       </rPr>
       <t>接頭未符合規範接頭剪力需求</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0403</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>向橫向鋼筋，是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18.4.5.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>向橫向鋼筋，是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18.4.5.4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0201</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認左端上層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0202</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認中央上層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0203</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認右端上層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0204</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認左端下層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0205</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認中央下層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0206</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認右端下層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0209</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認剪力鋼筋量上限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 22.5.1.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0212</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認左端上層筋上限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18.3.3.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0213</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認中央上層筋上限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18.3.3.1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【0214】請確認右端上層筋上限，是否符合規範 18.3.3.1 規定</t>
+  </si>
+  <si>
+    <t>【0215】請確認左端下層筋上限，是否符合規範 18.3.3.1 規定</t>
+  </si>
+  <si>
+    <t>【0216】請確認中央下層筋上限，是否符合規範 18.3.3.1 規定</t>
+  </si>
+  <si>
+    <t>【0217】請確認右端下層筋上限，是否符合規範 18.3.3.1 規定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0218</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認耐震最小量鋼筋，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 18.3.3.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】短梁側筋面積不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.0025 * bw * s2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平剪力鋼筋面積</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Avh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.0025 * bw * s2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> d / 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30 cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如梁與柵版之總深度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>超過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 90 cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時，在距最外受拉面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> h/2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>範圍內之梁腹兩側應加置縱向表層鋼筋，梁腹每側表層鋼筋之間距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得大於式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(9-6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之規定，其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>為表層鋼筋或預力鋼筋至最近側面之淨保護層厚度。此等鋼筋應可併入強度計算，惟鋼筋之應力須按應變一致性之分析求得。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0207</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.7.2.3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0307</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.7.2.3</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】短梁側筋面積不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.5 * 0.0025 * bw * S2</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5581,7 +5565,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5772,6 +5756,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6091,8 +6078,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6270,19 +6257,19 @@
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="60" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="33" t="s">
-        <v>29</v>
+      <c r="L6" s="64" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -6301,16 +6288,18 @@
         <v>27</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
-      <c r="A8" s="21"/>
+      <c r="A8" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B8" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24">
@@ -6318,7 +6307,7 @@
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27" t="s">
@@ -6326,19 +6315,19 @@
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="30" t="s">
         <v>35</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -6350,23 +6339,23 @@
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="28" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -6378,23 +6367,23 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="28" t="s">
         <v>27</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L10" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
@@ -6406,23 +6395,23 @@
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="58" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="59" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="K11" s="55" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -6436,23 +6425,23 @@
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="58" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -6466,23 +6455,23 @@
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="58" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K13" s="55" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -6496,17 +6485,17 @@
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="58" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K14" s="55" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="L14" s="36" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
@@ -6534,8 +6523,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6591,10 +6580,10 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>12</v>
@@ -6636,7 +6625,7 @@
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -6647,28 +6636,28 @@
         <v>16</v>
       </c>
       <c r="G4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="J4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="K4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="L4" s="39" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -6676,31 +6665,31 @@
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="27" t="s">
+      <c r="J5" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="L5" s="39" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -6711,28 +6700,28 @@
         <v>16</v>
       </c>
       <c r="G6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="27" t="s">
+      <c r="J6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>59</v>
+      <c r="L6" s="39" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -6743,28 +6732,28 @@
         <v>16</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>51</v>
-      </c>
       <c r="K7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -6775,28 +6764,28 @@
         <v>16</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -6807,28 +6796,28 @@
         <v>16</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="37" t="s">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="L9" s="39" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -6840,23 +6829,25 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>71</v>
+        <v>62</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
-      <c r="A11" s="21"/>
+      <c r="A11" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B11" s="31" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -6867,22 +6858,22 @@
         <v>16</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="38"/>
       <c r="K11" s="29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="L11" s="39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -6898,19 +6889,19 @@
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="L12" s="39" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -6922,23 +6913,23 @@
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -6950,23 +6941,23 @@
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
@@ -6974,31 +6965,31 @@
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
       <c r="F15" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>50</v>
-      </c>
       <c r="J15" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>88</v>
+        <v>78</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -7006,31 +6997,31 @@
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G16" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>50</v>
-      </c>
       <c r="J16" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -7038,31 +7029,31 @@
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
       <c r="F17" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="I17" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>50</v>
-      </c>
       <c r="J17" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>92</v>
+        <v>78</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.75">
       <c r="A18" s="21"/>
       <c r="B18" s="31" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C18" s="23">
         <v>1</v>
@@ -7070,31 +7061,31 @@
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
       <c r="F18" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>94</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75">
       <c r="A19" s="21"/>
       <c r="B19" s="31" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C19" s="23">
         <v>1</v>
@@ -7102,31 +7093,31 @@
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
       <c r="F19" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75">
       <c r="A20" s="21"/>
       <c r="B20" s="31" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C20" s="23">
         <v>1</v>
@@ -7134,31 +7125,31 @@
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
       <c r="F20" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>58</v>
-      </c>
       <c r="I20" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75">
       <c r="A21" s="21"/>
       <c r="B21" s="31" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C21" s="23">
         <v>1</v>
@@ -7166,27 +7157,27 @@
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
       <c r="F21" s="32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="38" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="L21" s="39" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
       <c r="A22" s="21"/>
       <c r="B22" s="31" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C22" s="23">
         <v>1</v>
@@ -7200,23 +7191,23 @@
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="34" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="38" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75">
       <c r="A23" s="21"/>
       <c r="B23" s="31" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C23" s="23">
         <v>1</v>
@@ -7230,23 +7221,23 @@
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K23" s="40" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75">
       <c r="A24" s="21"/>
       <c r="B24" s="31" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24">
@@ -7257,28 +7248,28 @@
         <v>16</v>
       </c>
       <c r="G24" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>50</v>
-      </c>
       <c r="J24" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75">
       <c r="A25" s="21"/>
       <c r="B25" s="42" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C25" s="23">
         <v>1</v>
@@ -7289,26 +7280,26 @@
         <v>16</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>113</v>
+        <v>49</v>
+      </c>
+      <c r="K25" s="57" t="s">
+        <v>212</v>
       </c>
       <c r="L25" s="56" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75">
       <c r="A26" s="21"/>
       <c r="B26" s="42" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
@@ -7320,23 +7311,23 @@
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K26" s="40" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18.75">
       <c r="A27" s="21"/>
       <c r="B27" s="42" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24">
@@ -7347,20 +7338,20 @@
         <v>16</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="62" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="K27" s="63" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="L27" s="39" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7374,8 +7365,8 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7431,10 +7422,10 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="47" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>12</v>
@@ -7475,10 +7466,10 @@
     </row>
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -7489,30 +7480,30 @@
         <v>16</v>
       </c>
       <c r="G4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="J4" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="K4" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="L4" s="39" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -7523,30 +7514,30 @@
         <v>16</v>
       </c>
       <c r="G5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="27" t="s">
+      <c r="J5" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="L5" s="37" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -7557,30 +7548,30 @@
         <v>16</v>
       </c>
       <c r="G6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="27" t="s">
+      <c r="J6" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>52</v>
-      </c>
       <c r="L6" s="37" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -7591,28 +7582,28 @@
         <v>16</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>51</v>
-      </c>
       <c r="K7" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="42" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -7623,30 +7614,30 @@
         <v>16</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="37" t="s">
-        <v>127</v>
+        <v>50</v>
+      </c>
+      <c r="L8" s="39" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -7657,28 +7648,28 @@
         <v>16</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J9" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="21"/>
       <c r="B10" s="42" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -7690,23 +7681,23 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K10" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="37" t="s">
-        <v>130</v>
+        <v>63</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -7718,23 +7709,23 @@
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -7746,23 +7737,23 @@
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -7773,26 +7764,26 @@
         <v>16</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -7803,26 +7794,26 @@
         <v>16</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
@@ -7834,23 +7825,23 @@
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="27" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -7862,17 +7853,17 @@
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="27" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -7886,8 +7877,8 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7943,10 +7934,10 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="11" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>12</v>
@@ -7988,7 +7979,7 @@
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -7999,26 +7990,26 @@
         <v>16</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="34" t="s">
         <v>26</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -8029,26 +8020,26 @@
         <v>16</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J5" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>114</v>
+        <v>97</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24">
@@ -8059,26 +8050,26 @@
         <v>16</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>152</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>153</v>
+        <v>133</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -8089,26 +8080,26 @@
         <v>16</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K7" s="40" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -8119,26 +8110,26 @@
         <v>16</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K8" s="40" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -8150,23 +8141,23 @@
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K9" s="40" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="L9" s="41" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -8178,23 +8169,23 @@
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="38" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K10" s="40" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="L10" s="41" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -8205,26 +8196,26 @@
         <v>16</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K11" s="40" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -8235,26 +8226,26 @@
         <v>16</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24">
@@ -8265,28 +8256,28 @@
         <v>16</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K13" s="40" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24">
@@ -8297,28 +8288,28 @@
         <v>16</v>
       </c>
       <c r="G14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>50</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K14" s="40" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="L14" s="41" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24">
@@ -8329,28 +8320,28 @@
         <v>16</v>
       </c>
       <c r="G15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>50</v>
-      </c>
       <c r="J15" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -8364,23 +8355,23 @@
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="34" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="38" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K16" s="40" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="L16" s="41" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -8394,17 +8385,17 @@
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/file/柱SCAN.xlsx
+++ b/file/柱SCAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BBAA17-B273-4125-BA99-CF4C1C746EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9606CA26-E23D-47C8-82F4-F10896049AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
   </bookViews>
   <sheets>
     <sheet name="柱" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="217">
   <si>
     <t>Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6523,8 +6523,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6655,7 +6655,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
-      <c r="A5" s="21"/>
+      <c r="A5" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B5" s="31" t="s">
         <v>51</v>
       </c>
@@ -6871,7 +6873,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="21"/>
+      <c r="A12" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B12" s="31" t="s">
         <v>68</v>
       </c>
@@ -7365,7 +7369,7 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -7877,8 +7881,8 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8067,7 +8071,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
-      <c r="A7" s="21"/>
+      <c r="A7" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B7" s="31" t="s">
         <v>134</v>
       </c>
@@ -8097,7 +8103,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
-      <c r="A8" s="21"/>
+      <c r="A8" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B8" s="31" t="s">
         <v>137</v>
       </c>
@@ -8183,7 +8191,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
-      <c r="A11" s="21"/>
+      <c r="A11" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B11" s="31" t="s">
         <v>147</v>
       </c>
@@ -8213,7 +8223,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="21"/>
+      <c r="A12" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B12" s="31" t="s">
         <v>150</v>
       </c>

--- a/file/柱SCAN.xlsx
+++ b/file/柱SCAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BBAA17-B273-4125-BA99-CF4C1C746EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E2BE5D-A45E-4DF6-A02D-7C5446694C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
+    <workbookView minimized="1" xWindow="12480" yWindow="3825" windowWidth="12000" windowHeight="7995" activeTab="1" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
   </bookViews>
   <sheets>
     <sheet name="柱" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="217">
   <si>
     <t>Type</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3546,10 +3546,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大粱主筋間距大於1.5倍db</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -5235,6 +5231,60 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1.5 * 0.0025 * bw * S2</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>梁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋間距大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>db</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -6079,7 +6129,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="L8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6257,13 +6307,13 @@
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
@@ -6291,7 +6341,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
@@ -6383,7 +6433,7 @@
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
@@ -6395,23 +6445,23 @@
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="L11" s="36" t="s">
         <v>173</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -6425,23 +6475,23 @@
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="28" t="s">
         <v>33</v>
       </c>
       <c r="K12" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>180</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -6455,23 +6505,23 @@
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="28" t="s">
         <v>33</v>
       </c>
       <c r="K13" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -6485,17 +6535,17 @@
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28" t="s">
         <v>33</v>
       </c>
       <c r="K14" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="L14" s="36" t="s">
         <v>193</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
@@ -6523,8 +6573,8 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6651,11 +6701,13 @@
         <v>50</v>
       </c>
       <c r="L4" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
-      <c r="A5" s="21"/>
+      <c r="A5" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B5" s="31" t="s">
         <v>51</v>
       </c>
@@ -6683,7 +6735,7 @@
         <v>50</v>
       </c>
       <c r="L5" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
@@ -6715,7 +6767,7 @@
         <v>50</v>
       </c>
       <c r="L6" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
@@ -6747,7 +6799,7 @@
         <v>50</v>
       </c>
       <c r="L7" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
@@ -6779,7 +6831,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
@@ -6811,7 +6863,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75">
@@ -6836,10 +6888,10 @@
         <v>62</v>
       </c>
       <c r="K10" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="39" t="s">
         <v>213</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
@@ -6871,7 +6923,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="21"/>
+      <c r="A12" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B12" s="31" t="s">
         <v>68</v>
       </c>
@@ -6895,7 +6949,7 @@
         <v>69</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
@@ -6983,7 +7037,7 @@
         <v>78</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75">
@@ -7015,7 +7069,7 @@
         <v>78</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
@@ -7047,7 +7101,7 @@
         <v>78</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.75">
@@ -7079,7 +7133,7 @@
         <v>78</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75">
@@ -7111,7 +7165,7 @@
         <v>78</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75">
@@ -7143,7 +7197,7 @@
         <v>78</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75">
@@ -7171,7 +7225,7 @@
         <v>98</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
@@ -7290,10 +7344,10 @@
         <v>49</v>
       </c>
       <c r="K25" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L25" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75">
@@ -7317,17 +7371,17 @@
       <c r="J26" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="40" t="s">
+      <c r="K26" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" s="39" t="s">
         <v>167</v>
-      </c>
-      <c r="L26" s="39" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18.75">
       <c r="A27" s="21"/>
       <c r="B27" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24">
@@ -7338,20 +7392,20 @@
         <v>16</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>53</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="63" t="s">
         <v>187</v>
       </c>
-      <c r="K27" s="63" t="s">
-        <v>188</v>
-      </c>
       <c r="L27" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -7365,7 +7419,7 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -7603,7 +7657,7 @@
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -7629,7 +7683,7 @@
         <v>50</v>
       </c>
       <c r="L8" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
@@ -7669,7 +7723,7 @@
     <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="21"/>
       <c r="B10" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -7691,7 +7745,7 @@
         <v>63</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
@@ -7841,7 +7895,7 @@
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -7860,10 +7914,10 @@
         <v>49</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7877,8 +7931,8 @@
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8033,7 +8087,7 @@
         <v>97</v>
       </c>
       <c r="L5" s="56" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
@@ -8063,11 +8117,13 @@
         <v>133</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
-      <c r="A7" s="21"/>
+      <c r="A7" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B7" s="31" t="s">
         <v>134</v>
       </c>
@@ -8097,7 +8153,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
-      <c r="A8" s="21"/>
+      <c r="A8" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B8" s="31" t="s">
         <v>137</v>
       </c>
@@ -8183,7 +8241,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
-      <c r="A11" s="21"/>
+      <c r="A11" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B11" s="31" t="s">
         <v>147</v>
       </c>
@@ -8213,7 +8273,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
-      <c r="A12" s="21"/>
+      <c r="A12" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="B12" s="31" t="s">
         <v>150</v>
       </c>

--- a/file/柱SCAN.xlsx
+++ b/file/柱SCAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\BeamQC\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E2BE5D-A45E-4DF6-A02D-7C5446694C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42395276-53CC-45BD-A071-72E494F0FCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="12480" yWindow="3825" windowWidth="12000" windowHeight="7995" activeTab="1" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C2A7BE7-2142-4FCC-89B4-3B139FDB86C0}"/>
   </bookViews>
   <sheets>
     <sheet name="柱" sheetId="1" r:id="rId1"/>
@@ -81,6 +81,669 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>安全性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>經濟性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>施工性</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>---</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>鋼筋比</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>往上漸縮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不低於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>60%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認上層柱主筋量，漸縮是否過大</t>
+    </r>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>往下漸縮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不低於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>70%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認下層柱主筋量，漸縮是否過大</t>
+    </r>
+  </si>
+  <si>
+    <t>0403</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下限</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>矩形閉合箍筋及繫筋之總斷面積</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ash </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得小於式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(15-3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(15-4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之值。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0404</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>矩形閉合箍筋及繫筋之總斷面積</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ash </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得小於式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(15-3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>及式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(15-4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之值。</t>
+    </r>
+  </si>
+  <si>
+    <t>0405</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>頂樓區</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上限</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>頂樓區鋼筋比不大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.2 %</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0405</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認高樓區鋼筋比，是否超過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.2 %</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0406</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>繫筋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中央繫筋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= RoundUp((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋支數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 1) / 2) - 1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0406</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>向繫筋未符合隔根勾</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0407</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中央繫筋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> &gt;= RoundUp((</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋支數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - 1) / 2) - 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0407</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>向繫筋未符合隔根勾</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -90,108 +753,379 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>高樓柱</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>安全性</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>經濟性</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>施工性</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0401</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>---</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>鋼筋比</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>往上漸縮</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不低於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>60%</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>大梁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0201</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>主筋比</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>左端</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層筋</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下限</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>受撓構材之最少鋼筋量</t>
+    </r>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>非</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大梁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中央</t>
+    </r>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>右端</t>
+    </r>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>下層筋</t>
+    </r>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>梁深</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上限</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如梁與柵版之總深度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> h </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>超過</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 90 cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時，在距最外受拉面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> h/2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>範圍內之梁腹兩側應加置縱向表層鋼筋，梁腹每側表層鋼筋之間距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> s </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得大於式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3-6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>之規定，其</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> cc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>為表層鋼筋或預力鋼筋至最近側面之淨保護層厚度。此等鋼筋應可併入強度計算，惟鋼筋之應力須按應變一致性之分析求得。</t>
+    </r>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>深梁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>淨跨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ln </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍梁總深</t>
+    </r>
   </si>
   <si>
     <r>
@@ -211,56 +1145,156 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0401</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認上層柱主筋量，漸縮是否過大</t>
-    </r>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>往下漸縮</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不低於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>70%</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>0208</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認是否為深梁</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>剪力計算強度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Vs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不可大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.12 * fc' * bw * d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單排支數</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>同層平行鋼筋間之淨距不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.0db</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，或粗粒料標稱最大粒徑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1.33 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倍，亦不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.5 cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <r>
@@ -280,239 +1314,267 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0402</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認下層柱主筋量，漸縮是否過大</t>
-    </r>
-  </si>
-  <si>
-    <t>0403</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t>0210</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認單排支數上限，是否符合淨距不少於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 Db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單排支數需大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0211</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單排支數下限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拉力鋼筋比不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (fc' + 100) / (4 * fy)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，亦不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
       <t>下限</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>矩形閉合箍筋及繫筋之總斷面積</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ash </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不得小於式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(15-3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(15-4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之值。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0404</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>矩形閉合箍筋及繫筋之總斷面積</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ash </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不得小於式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(15-3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(15-4)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之值。</t>
-    </r>
-  </si>
-  <si>
-    <t>0405</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>頂樓區</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上限</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>頂樓區鋼筋比不大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.2 %</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋間距</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋間距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以上</t>
+    </r>
   </si>
   <si>
     <r>
@@ -532,85 +1594,68 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0405</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認高樓區鋼筋比，是否超過</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.2 %</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0406</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>繫筋</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中央繫筋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;= RoundUp((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋支數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - 1) / 2) - 1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+      <t>0219</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認箍筋間距下限，是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以上規定</t>
+    </r>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>箍筋間距</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下</t>
+    </r>
   </si>
   <si>
     <r>
@@ -630,80 +1675,90 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0406</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>向繫筋未符合隔根勾</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0407</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中央繫筋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;= RoundUp((</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋支數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - 1) / 2) - 1</t>
+      <t>0220</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認箍筋間距上限，是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30cm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>如果鋼筋支數大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支，中央上層鋼筋量需小於端部最小鋼筋量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 70%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
     </r>
   </si>
   <si>
@@ -724,37 +1779,812 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>0407</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>向繫筋未符合隔根勾</t>
-    </r>
+      <t>0221</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認中央上層筋相對鋼筋量，是否符合中央上層鋼筋量需小於端部最小鋼筋量的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 70% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>側筋</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>水平剪力鋼筋面積</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Avh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得小於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.0015 * bw * s2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">s2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不得大於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> d / 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30 cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>撓曲構材在梁柱交接面及其它可能產生塑鉸位置，其壓力鋼筋量不得小於拉力鋼筋量之半。在沿構材長度上任何斷面，不論正彎矩鋼筋量或負彎矩鋼筋量均不得低於兩端柱面處所具最大負彎矩鋼筋量之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0301</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0301</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認左端上層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0302</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認中央上層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0303</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認右端上層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0304</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認左端下層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0306</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認右端下層筋下限，是否符合規範</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3.6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0308</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認單排支數上限，是否符合淨距不少於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1 Db </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0309</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認是否符合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>單排支數下限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>規定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0310</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>小梁鋼筋比在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0310</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認上層筋上限，是否在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下</t>
+    </r>
+  </si>
+  <si>
+    <t>0311</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0311</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】請確認下層筋上限，是否在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2.5% </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>以下</t>
+    </r>
+  </si>
+  <si>
+    <t>0312</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>垂直載重</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>假設帶寬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 3m ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>則</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0.6 * 1/8 * wu * L^2 &lt;= As * fy * d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0312</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>】垂直載重配筋可能不足</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小梁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -767,1850 +2597,6 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>大梁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主筋比</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>左端</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上層筋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下限</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>受撓構材之最少鋼筋量</t>
-    </r>
-  </si>
-  <si>
-    <t>0202</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>非</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1F </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大梁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中央</t>
-    </r>
-  </si>
-  <si>
-    <t>0203</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>右端</t>
-    </r>
-  </si>
-  <si>
-    <t>0204</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下層筋</t>
-    </r>
-  </si>
-  <si>
-    <t>0205</t>
-  </si>
-  <si>
-    <t>0206</t>
-  </si>
-  <si>
-    <t>0207</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>梁深</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上限</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如梁與柵版之總深度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> h </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>超過</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 90 cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>時，在距最外受拉面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> h/2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>範圍內之梁腹兩側應加置縱向表層鋼筋，梁腹每側表層鋼筋之間距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> s </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不得大於式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(3-6)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>之規定，其</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> cc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>為表層鋼筋或預力鋼筋至最近側面之淨保護層厚度。此等鋼筋應可併入強度計算，惟鋼筋之應力須按應變一致性之分析求得。</t>
-    </r>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>深梁</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>淨跨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ln </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>倍梁總深</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0208</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認是否為深梁</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0209</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>剪力計算強度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Vs </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不可大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.12 * fc' * bw * d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>0210</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單排支數</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>同層平行鋼筋間之淨距不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.0db</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，或粗粒料標稱最大粒徑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1.33 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>倍，亦不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.5 cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0210</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認單排支數上限，是否符合淨距不少於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 Db </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0211</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單排支數需大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>支</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0211</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單排支數下限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0212</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>拉力鋼筋比不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (fc' + 100) / (4 * fy)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，亦不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <t>0213</t>
-  </si>
-  <si>
-    <t>0214</t>
-  </si>
-  <si>
-    <t>0215</t>
-  </si>
-  <si>
-    <t>0216</t>
-  </si>
-  <si>
-    <t>0217</t>
-  </si>
-  <si>
-    <t>0218</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>下限</t>
-    </r>
-  </si>
-  <si>
-    <t>0219</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋間距</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋間距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以上</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0219</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認箍筋間距下限，是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 10cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以上規定</t>
-    </r>
-  </si>
-  <si>
-    <t>0220</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>箍筋間距</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 30cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0220</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認箍筋間距上限，是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 30cm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0221</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>如果鋼筋支數大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>支，中央上層鋼筋量需小於端部最小鋼筋量的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 70%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0221</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央上層筋相對鋼筋量，是否符合中央上層鋼筋量需小於端部最小鋼筋量的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 70% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>側筋</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>水平剪力鋼筋面積</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Avh </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不得小於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.0015 * bw * s2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">s2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>不得大於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> d / 5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 30 cm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>撓曲構材在梁柱交接面及其它可能產生塑鉸位置，其壓力鋼筋量不得小於拉力鋼筋量之半。在沿構材長度上任何斷面，不論正彎矩鋼筋量或負彎矩鋼筋量均不得低於兩端柱面處所具最大負彎矩鋼筋量之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1/4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0301</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認左端上層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0302</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0302</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認中央上層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <t>0303</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0303</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認右端上層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <t>0304</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0304</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認左端下層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-  </si>
-  <si>
-    <t>0306</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0306</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認右端下層筋下限，是否符合規範</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3.6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0308</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0308</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認單排支數上限，是否符合淨距不少於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1 Db </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0309</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0309</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認是否符合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>單排支數下限</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>規定</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0310</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>小梁鋼筋比在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.5% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0310</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認上層筋上限，是否在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.5% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下</t>
-    </r>
-  </si>
-  <si>
-    <t>0311</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0311</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】請確認下層筋上限，是否在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 2.5% </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>以下</t>
-    </r>
-  </si>
-  <si>
-    <t>0312</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>垂直載重</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>假設帶寬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 3m ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>則</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 0.6 * 1/8 * wu * L^2 &lt;= As * fy * d</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0312</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>】垂直載重配筋可能不足</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小梁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
       <t>地梁</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5286,6 +5272,10 @@
       </rPr>
       <t>db</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6128,8 +6118,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="A8:L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6185,20 +6175,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="17">
@@ -6231,7 +6221,7 @@
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -6241,27 +6231,27 @@
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="L4" s="33" t="s">
         <v>19</v>
-      </c>
-      <c r="L4" s="33" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -6271,27 +6261,27 @@
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="L5" s="33" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -6299,27 +6289,27 @@
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K6" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -6327,29 +6317,29 @@
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="24">
@@ -6357,27 +6347,27 @@
       </c>
       <c r="E8" s="25"/>
       <c r="F8" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="35" t="s">
+      <c r="L8" s="30" t="s">
         <v>34</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -6385,27 +6375,27 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="27"/>
       <c r="J9" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="36" t="s">
         <v>38</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -6413,27 +6403,27 @@
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K10" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="24"/>
@@ -6441,27 +6431,27 @@
         <v>1</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="59" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="L11" s="36" t="s">
         <v>172</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -6471,27 +6461,27 @@
         <v>1</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="L12" s="36" t="s">
         <v>179</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -6501,27 +6491,27 @@
         <v>1</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -6531,21 +6521,21 @@
         <v>1</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" s="36" t="s">
         <v>192</v>
-      </c>
-      <c r="L14" s="36" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
@@ -6573,7 +6563,7 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -6630,19 +6620,19 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="17">
@@ -6675,7 +6665,7 @@
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -6683,33 +6673,33 @@
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="F4" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="K4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -6717,31 +6707,31 @@
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>53</v>
-      </c>
       <c r="I5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="K5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L5" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -6749,31 +6739,31 @@
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="K6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L6" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21"/>
       <c r="B7" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -6781,31 +6771,31 @@
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L7" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -6813,31 +6803,31 @@
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L8" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -6845,31 +6835,31 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L9" s="39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -6877,29 +6867,29 @@
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="39" t="s">
         <v>212</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -6907,27 +6897,27 @@
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
       <c r="F11" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="38"/>
       <c r="K11" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="39" t="s">
         <v>66</v>
-      </c>
-      <c r="L11" s="39" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -6935,27 +6925,27 @@
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
       <c r="F12" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" s="39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -6963,27 +6953,27 @@
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="27"/>
       <c r="J13" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -6991,27 +6981,27 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="37" t="s">
         <v>75</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
@@ -7019,31 +7009,31 @@
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
       <c r="F15" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="I15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="27" t="s">
-        <v>48</v>
-      </c>
       <c r="J15" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -7051,31 +7041,31 @@
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>53</v>
-      </c>
       <c r="I16" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -7083,31 +7073,31 @@
       <c r="D17" s="24"/>
       <c r="E17" s="25"/>
       <c r="F17" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18.75">
       <c r="A18" s="21"/>
       <c r="B18" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="23">
         <v>1</v>
@@ -7115,31 +7105,31 @@
       <c r="D18" s="24"/>
       <c r="E18" s="25"/>
       <c r="F18" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="27" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18.75">
       <c r="A19" s="21"/>
       <c r="B19" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="23">
         <v>1</v>
@@ -7147,31 +7137,31 @@
       <c r="D19" s="24"/>
       <c r="E19" s="25"/>
       <c r="F19" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>53</v>
-      </c>
       <c r="I19" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K19" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18.75">
       <c r="A20" s="21"/>
       <c r="B20" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" s="23">
         <v>1</v>
@@ -7179,31 +7169,31 @@
       <c r="D20" s="24"/>
       <c r="E20" s="25"/>
       <c r="F20" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75">
       <c r="A21" s="21"/>
       <c r="B21" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="23">
         <v>1</v>
@@ -7211,27 +7201,27 @@
       <c r="D21" s="24"/>
       <c r="E21" s="25"/>
       <c r="F21" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L21" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
       <c r="A22" s="21"/>
       <c r="B22" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="23">
         <v>1</v>
@@ -7241,27 +7231,27 @@
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K22" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="37" t="s">
         <v>88</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="18.75">
       <c r="A23" s="21"/>
       <c r="B23" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="23">
         <v>1</v>
@@ -7271,27 +7261,27 @@
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K23" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="18.75">
       <c r="A24" s="21"/>
       <c r="B24" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="24">
@@ -7299,31 +7289,31 @@
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="37" t="s">
         <v>94</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75">
       <c r="A25" s="21"/>
       <c r="B25" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="23">
         <v>1</v>
@@ -7331,29 +7321,29 @@
       <c r="D25" s="24"/>
       <c r="E25" s="25"/>
       <c r="F25" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="34"/>
       <c r="I25" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25" s="57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L25" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="18.75">
       <c r="A26" s="21"/>
       <c r="B26" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
@@ -7361,27 +7351,27 @@
         <v>1</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26" s="57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L26" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="18.75">
       <c r="A27" s="21"/>
       <c r="B27" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="24">
@@ -7389,23 +7379,23 @@
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I27" s="27"/>
       <c r="J27" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="K27" s="63" t="s">
-        <v>187</v>
-      </c>
       <c r="L27" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7476,19 +7466,19 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="17">
@@ -7520,10 +7510,10 @@
     </row>
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>102</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -7531,33 +7521,33 @@
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="F4" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="K4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L4" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -7565,33 +7555,33 @@
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="K5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L5" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="23">
         <v>1</v>
@@ -7599,33 +7589,33 @@
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="K6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L6" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -7633,31 +7623,31 @@
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L7" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21"/>
       <c r="B8" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -7665,33 +7655,33 @@
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L8" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -7699,31 +7689,31 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J9" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="29" t="s">
-        <v>50</v>
-      </c>
       <c r="L9" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="31.5">
       <c r="A10" s="21"/>
       <c r="B10" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -7731,27 +7721,27 @@
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="27"/>
       <c r="J10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="46" t="s">
-        <v>63</v>
-      </c>
       <c r="L10" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21"/>
       <c r="B11" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -7759,27 +7749,27 @@
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
       <c r="F11" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" s="27"/>
       <c r="J11" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21"/>
       <c r="B12" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -7787,27 +7777,27 @@
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
       <c r="F12" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="27"/>
       <c r="J12" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="23">
         <v>1</v>
@@ -7815,29 +7805,29 @@
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>117</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="23">
         <v>1</v>
@@ -7845,29 +7835,29 @@
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="27"/>
       <c r="I14" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="23">
         <v>1</v>
@@ -7875,27 +7865,27 @@
       <c r="D15" s="43"/>
       <c r="E15" s="44"/>
       <c r="F15" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="45"/>
       <c r="H15" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="45"/>
       <c r="J15" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="37" t="s">
         <v>123</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -7903,21 +7893,21 @@
       <c r="D16" s="43"/>
       <c r="E16" s="44"/>
       <c r="F16" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="45"/>
       <c r="H16" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" s="45"/>
       <c r="J16" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -7988,19 +7978,19 @@
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1">
       <c r="A2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>127</v>
-      </c>
       <c r="C2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="17">
@@ -8033,7 +8023,7 @@
     <row r="4" spans="1:12" ht="18.75">
       <c r="A4" s="21"/>
       <c r="B4" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="23">
         <v>1</v>
@@ -8041,29 +8031,29 @@
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="F4" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="37" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="18.75">
       <c r="A5" s="21"/>
       <c r="B5" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="23">
         <v>1</v>
@@ -8071,29 +8061,29 @@
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="J5" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>97</v>
-      </c>
       <c r="L5" s="56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75">
       <c r="A6" s="21"/>
       <c r="B6" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="24">
@@ -8101,31 +8091,31 @@
       </c>
       <c r="E6" s="25"/>
       <c r="F6" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H6" s="34"/>
       <c r="I6" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J6" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="18.75">
       <c r="A7" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="23">
         <v>1</v>
@@ -8133,31 +8123,31 @@
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="41" t="s">
         <v>135</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18.75">
       <c r="A8" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="23">
         <v>1</v>
@@ -8165,29 +8155,29 @@
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J8" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K8" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="41" t="s">
         <v>138</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18.75">
       <c r="A9" s="21"/>
       <c r="B9" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="23">
         <v>1</v>
@@ -8195,27 +8185,27 @@
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" s="34"/>
       <c r="J9" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" s="41" t="s">
         <v>142</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="18.75">
       <c r="A10" s="21"/>
       <c r="B10" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="23">
         <v>1</v>
@@ -8223,29 +8213,29 @@
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" s="34"/>
       <c r="J10" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K10" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="41" t="s">
         <v>145</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18.75">
       <c r="A11" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="23">
         <v>1</v>
@@ -8253,31 +8243,31 @@
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
       <c r="F11" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="27"/>
       <c r="I11" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K11" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="41" t="s">
         <v>148</v>
-      </c>
-      <c r="L11" s="41" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18.75">
       <c r="A12" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="23">
         <v>1</v>
@@ -8285,29 +8275,29 @@
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
       <c r="F12" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K12" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="41" t="s">
         <v>151</v>
-      </c>
-      <c r="L12" s="41" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18.75">
       <c r="A13" s="21"/>
       <c r="B13" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="24">
@@ -8315,31 +8305,31 @@
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="41" t="s">
         <v>154</v>
-      </c>
-      <c r="L13" s="41" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75">
       <c r="A14" s="21"/>
       <c r="B14" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24">
@@ -8347,31 +8337,31 @@
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="I14" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="27" t="s">
-        <v>48</v>
-      </c>
       <c r="J14" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K14" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" s="41" t="s">
         <v>157</v>
-      </c>
-      <c r="L14" s="41" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18.75">
       <c r="A15" s="21"/>
       <c r="B15" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24">
@@ -8379,31 +8369,31 @@
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L15" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18.75">
       <c r="A16" s="21"/>
       <c r="B16" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="23">
         <v>1</v>
@@ -8413,27 +8403,27 @@
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K16" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="41" t="s">
         <v>162</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18.75">
       <c r="A17" s="21"/>
       <c r="B17" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="23">
         <v>1</v>
@@ -8443,21 +8433,21 @@
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="34"/>
       <c r="H17" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K17" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L17" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
